--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\_Programming\IDEA\Kotlin\ProjectNotifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274113E9-3E4F-408A-B342-D902A888D853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D04F742-084B-435A-996B-F0B63AF1131B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -491,7 +491,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
